--- a/data/trans_bre/P25_8-Urba-trans_bre.xlsx
+++ b/data/trans_bre/P25_8-Urba-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -523,6 +523,8 @@
     <col width="14" customWidth="1" min="6" max="6"/>
     <col width="14" customWidth="1" min="7" max="7"/>
     <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -539,13 +541,15 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
       <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -567,17 +571,27 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
         </is>
       </c>
     </row>
@@ -590,6 +604,8 @@
       <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="n"/>
       <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -604,32 +620,42 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>5,92</t>
+          <t>6,77</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>3,54</t>
+          <t>1,13</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>6,43</t>
+          <t>6,63</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>29,29%</t>
+          <t>7,96</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>20,85%</t>
+          <t>30,24%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>29,91%</t>
+          <t>5,59%</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>36,56%</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>34,16%</t>
         </is>
       </c>
     </row>
@@ -642,32 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-0,77; 12,49</t>
+          <t>-3,05; 15,95</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-2,93; 9,36</t>
+          <t>-8,37; 9,38</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-2,83; 18,95</t>
+          <t>-3,14; 15,65</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-3,6; 76,24</t>
+          <t>-2,75; 19,18</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-14,92; 68,44</t>
+          <t>-10,73; 90,79</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-15,0; 107,38</t>
+          <t>-31,62; 60,83</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>-12,84; 121,74</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>-10,07; 113,84</t>
         </is>
       </c>
     </row>
@@ -684,32 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>2,07</t>
+          <t>-2,73</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-0,71</t>
+          <t>3,08</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>7,4</t>
+          <t>2,13</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>10,99%</t>
+          <t>0,82</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-4,19%</t>
+          <t>-12,59%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>43,36%</t>
+          <t>24,32%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>13,21%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>4,67%</t>
         </is>
       </c>
     </row>
@@ -722,32 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-7,65; 9,64</t>
+          <t>-14,57; 6,45</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-8,52; 6,94</t>
+          <t>-5,14; 11,41</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-1,22; 16,43</t>
+          <t>-8,47; 11,38</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-32,79; 62,16</t>
+          <t>-9,95; 9,99</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-39,3; 57,92</t>
+          <t>-51,32; 38,53</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-7,85; 121,37</t>
+          <t>-32,63; 142,08</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>-39,9; 96,18</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>-41,23; 84,03</t>
         </is>
       </c>
     </row>
@@ -764,32 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>13,97</t>
+          <t>11,87</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>9,86</t>
+          <t>9,96</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>10,41</t>
+          <t>11,46</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>88,16%</t>
+          <t>32,84</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>90,8%</t>
+          <t>44,97%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>44,8%</t>
+          <t>57,46%</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>38,68%</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>227,88%</t>
         </is>
       </c>
     </row>
@@ -802,32 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-2,83; 29,7</t>
+          <t>-12,95; 37,19</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-3,56; 24,0</t>
+          <t>-13,42; 31,09</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-7,3; 27,03</t>
+          <t>-17,15; 38,02</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-15,2; 319,53</t>
+          <t>6,5; 53,17</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-26,36; 467,58</t>
+          <t>-31,81; 369,19</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-24,59; 178,38</t>
+          <t>-46,14; 495,49</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>-37,24; 283,02</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>11,55; 981,4</t>
         </is>
       </c>
     </row>
@@ -844,32 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>5,25</t>
+          <t>3,29</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>2,62</t>
+          <t>2,89</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>7,25</t>
+          <t>5,26</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>27,38%</t>
+          <t>8,06</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>16,2%</t>
+          <t>14,58%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>36,39%</t>
+          <t>17,28%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>28,41%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>40,29%</t>
         </is>
       </c>
     </row>
@@ -882,42 +968,59 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-0,29; 10,1</t>
+          <t>-3,78; 9,87</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-2,65; 6,87</t>
+          <t>-2,83; 8,85</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0,92; 14,59</t>
+          <t>-1,44; 11,26</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-1,26; 61,14</t>
+          <t>0,63; 15,19</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-14,09; 50,35</t>
+          <t>-14,06; 51,92</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>3,34; 88,38</t>
+          <t>-14,26; 64,71</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>-6,55; 77,08</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>1,79; 94,48</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="F1:H1"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
   </mergeCells>

--- a/data/trans_bre/P25_8-Urba-trans_bre.xlsx
+++ b/data/trans_bre/P25_8-Urba-trans_bre.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -125,7 +128,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -138,6 +141,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -504,7 +513,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J12"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -618,299 +627,199 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>6,77</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>1,13</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>6,63</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>7,96</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>30,24%</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>5,59%</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>36,56%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>34,16%</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>6.649081360762124</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>-1.141091908188582</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>6.023620617267081</v>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>6.963451824850847</v>
+      </c>
+      <c r="G4" s="6" t="n">
+        <v>0.3030984377790468</v>
+      </c>
+      <c r="H4" s="6" t="n">
+        <v>-0.05187561042267607</v>
+      </c>
+      <c r="I4" s="6" t="n">
+        <v>0.3250694438459492</v>
+      </c>
+      <c r="J4" s="6" t="n">
+        <v>0.2985009526840305</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>-3,05; 15,95</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>-8,37; 9,38</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>-3,14; 15,65</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>-2,75; 19,18</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>-10,73; 90,79</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>-31,62; 60,83</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>-12,84; 121,74</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>-10,07; 113,84</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>-3.195282280928691</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-11.44566809501879</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>-3.921690636779595</v>
+      </c>
+      <c r="F5" s="5" t="n">
+        <v>-3.28167309773681</v>
+      </c>
+      <c r="G5" s="6" t="n">
+        <v>-0.1105731597523974</v>
+      </c>
+      <c r="H5" s="6" t="n">
+        <v>-0.3821352745271498</v>
+      </c>
+      <c r="I5" s="6" t="n">
+        <v>-0.1512146645672116</v>
+      </c>
+      <c r="J5" s="6" t="n">
+        <v>-0.115307097874577</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>15.54023287282117</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>7.347540791821494</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>14.81976166648296</v>
+      </c>
+      <c r="F6" s="5" t="n">
+        <v>18.33907713940805</v>
+      </c>
+      <c r="G6" s="6" t="n">
+        <v>0.9277201940285565</v>
+      </c>
+      <c r="H6" s="6" t="n">
+        <v>0.4309454404737823</v>
+      </c>
+      <c r="I6" s="6" t="n">
+        <v>1.156639687773888</v>
+      </c>
+      <c r="J6" s="6" t="n">
+        <v>1.061762490044877</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>Intermedio</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>-2,73</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>3,08</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>2,13</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>0,82</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>-12,59%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>24,32%</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>13,21%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>4,67%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>-14,57; 6,45</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>-5,14; 11,41</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>-8,47; 11,38</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>-9,95; 9,99</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>-51,32; 38,53</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>-32,63; 142,08</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>-39,9; 96,18</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>-41,23; 84,03</t>
-        </is>
+      <c r="C7" s="5" t="n">
+        <v>-4.91431549290399</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>3.347551677105407</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>2.879864328863588</v>
+      </c>
+      <c r="F7" s="5" t="n">
+        <v>1.199755077600448</v>
+      </c>
+      <c r="G7" s="6" t="n">
+        <v>-0.2089762997479696</v>
+      </c>
+      <c r="H7" s="6" t="n">
+        <v>0.2637892890122362</v>
+      </c>
+      <c r="I7" s="6" t="n">
+        <v>0.1838708938058525</v>
+      </c>
+      <c r="J7" s="6" t="n">
+        <v>0.07069966020484572</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Rural</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>11,87</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>9,96</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>11,46</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>32,84</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>44,97%</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>57,46%</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>38,68%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>227,88%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>-18.91051952642877</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>-5.501200739312829</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>-7.359719117886196</v>
+      </c>
+      <c r="F8" s="5" t="n">
+        <v>-9.691950483722977</v>
+      </c>
+      <c r="G8" s="6" t="n">
+        <v>-0.5758479234138519</v>
+      </c>
+      <c r="H8" s="6" t="n">
+        <v>-0.3393578868587196</v>
+      </c>
+      <c r="I8" s="6" t="n">
+        <v>-0.3724295293501739</v>
+      </c>
+      <c r="J8" s="6" t="n">
+        <v>-0.4024948544391853</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>-12,95; 37,19</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-13,42; 31,09</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-17,15; 38,02</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>6,5; 53,17</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>-31,81; 369,19</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>-46,14; 495,49</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>-37,24; 283,02</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>11,55; 981,4</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>5.07034168489208</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>11.91407191199722</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>12.04926415045419</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>10.46506390747417</v>
+      </c>
+      <c r="G9" s="6" t="n">
+        <v>0.3161426763072043</v>
+      </c>
+      <c r="H9" s="6" t="n">
+        <v>1.525416257554452</v>
+      </c>
+      <c r="I9" s="6" t="n">
+        <v>1.099674635393028</v>
+      </c>
+      <c r="J9" s="6" t="n">
+        <v>0.8994455961060396</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>Rural</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -918,97 +827,197 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>3,29</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>2,89</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>5,26</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>8,06</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>14,58%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>17,28%</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>28,41%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>40,29%</t>
-        </is>
+      <c r="C10" s="5" t="n">
+        <v>16.86593012150108</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>9.182235608444492</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>12.2564195987215</v>
+      </c>
+      <c r="F10" s="5" t="n">
+        <v>35.31236029754637</v>
+      </c>
+      <c r="G10" s="6" t="n">
+        <v>0.694109163030781</v>
+      </c>
+      <c r="H10" s="6" t="n">
+        <v>0.4890694478044841</v>
+      </c>
+      <c r="I10" s="6" t="n">
+        <v>0.4093115955620613</v>
+      </c>
+      <c r="J10" s="6" t="n">
+        <v>2.491875303670788</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>-3,78; 9,87</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>-2,83; 8,85</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>-1,44; 11,26</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>0,63; 15,19</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>-14,06; 51,92</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>-14,26; 64,71</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>-6,55; 77,08</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>1,79; 94,48</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>-7.686342197548345</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-14.89288519104262</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>-16.64230451122455</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>10.98268049339362</v>
+      </c>
+      <c r="G11" s="6" t="n">
+        <v>-0.2239555624524445</v>
+      </c>
+      <c r="H11" s="6" t="n">
+        <v>-0.4957115117501159</v>
+      </c>
+      <c r="I11" s="6" t="n">
+        <v>-0.3637657845982934</v>
+      </c>
+      <c r="J11" s="6" t="n">
+        <v>0.2187342520865231</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>41.75503043762901</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>31.00946054398334</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>39.03791771618251</v>
+      </c>
+      <c r="F12" s="5" t="n">
+        <v>55.57944413814285</v>
+      </c>
+      <c r="G12" s="6" t="n">
+        <v>4.410761766072381</v>
+      </c>
+      <c r="H12" s="6" t="n">
+        <v>4.453805948065045</v>
+      </c>
+      <c r="I12" s="6" t="n">
+        <v>2.876556407290423</v>
+      </c>
+      <c r="J12" s="6" t="n">
+        <v>10.86870486052816</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C13" s="5" t="n">
+        <v>3.007955720901734</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>1.959192382018257</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>5.453943335194511</v>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>8.026113353239451</v>
+      </c>
+      <c r="G13" s="6" t="n">
+        <v>0.1317442970054054</v>
+      </c>
+      <c r="H13" s="6" t="n">
+        <v>0.1108100417313148</v>
+      </c>
+      <c r="I13" s="6" t="n">
+        <v>0.2952569046200018</v>
+      </c>
+      <c r="J13" s="6" t="n">
+        <v>0.4069274037583215</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>-4.992278717641311</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>-4.247088312402345</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>-0.9871473908177583</v>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>0.703049843372997</v>
+      </c>
+      <c r="G14" s="6" t="n">
+        <v>-0.180046408946101</v>
+      </c>
+      <c r="H14" s="6" t="n">
+        <v>-0.2058680629986205</v>
+      </c>
+      <c r="I14" s="6" t="n">
+        <v>-0.04408745340185699</v>
+      </c>
+      <c r="J14" s="6" t="n">
+        <v>0.02588108767813114</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>9.795373397849305</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>8.089497493325736</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>11.49022776949232</v>
+      </c>
+      <c r="F15" s="5" t="n">
+        <v>15.17516197720099</v>
+      </c>
+      <c r="G15" s="6" t="n">
+        <v>0.5135456617647567</v>
+      </c>
+      <c r="H15" s="6" t="n">
+        <v>0.5436856351808074</v>
+      </c>
+      <c r="I15" s="6" t="n">
+        <v>0.794844804353241</v>
+      </c>
+      <c r="J15" s="6" t="n">
+        <v>0.9294956663494756</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
@@ -1016,13 +1025,13 @@
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="C1:F1"/>
     <mergeCell ref="G1:J1"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
